--- a/results/yq_test/GHZ_cz/Rb2Re4/total_ghz.xlsx
+++ b/results/yq_test/GHZ_cz/Rb2Re4/total_ghz.xlsx
@@ -15,12 +15,6 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$B$2:$B$47</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$C$2:$C$47</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$47</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$C$2:$C$47</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
